--- a/Code/Node-RED/data.xlsx
+++ b/Code/Node-RED/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lionel\Documents\GitHub\ltombak\LoRa-antenna-measurement\Code\Node-RED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lionel\Documents\GitHub\LoRa-antenna-measurement\Code\Node-RED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A06A1540-14BC-4149-9D61-FEA7001F1B61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B30DE2D-36B8-482D-9845-44CD4A8B9CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{36785FFB-75B1-4C03-B583-657CBFF39F44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36785FFB-75B1-4C03-B583-657CBFF39F44}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil3" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="105">
   <si>
     <t>2019-11-30T14:59:05Z</t>
   </si>
@@ -44,18 +44,12 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>-10.5</t>
-  </si>
-  <si>
     <t>2019-11-30T14:59:51Z</t>
   </si>
   <si>
     <t>2.11</t>
   </si>
   <si>
-    <t>-8.8</t>
-  </si>
-  <si>
     <t>2019-11-30T14:59:55Z</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>2019-11-30T15:00:05Z</t>
   </si>
   <si>
-    <t>-10.8</t>
-  </si>
-  <si>
     <t>2019-11-30T15:00:10Z</t>
   </si>
   <si>
@@ -77,51 +68,30 @@
     <t>2019-11-30T15:00:36Z</t>
   </si>
   <si>
-    <t>-0.5</t>
-  </si>
-  <si>
     <t>2019-11-30T15:00:42Z</t>
   </si>
   <si>
     <t>2019-11-30T15:00:46Z</t>
   </si>
   <si>
-    <t>-3.3</t>
-  </si>
-  <si>
     <t>2019-11-30T15:00:52Z</t>
   </si>
   <si>
-    <t>-11.8</t>
-  </si>
-  <si>
     <t>2019-11-30T15:00:56Z</t>
   </si>
   <si>
-    <t>-12.3</t>
-  </si>
-  <si>
     <t>2019-11-30T15:01:01Z</t>
   </si>
   <si>
-    <t>-3.5</t>
-  </si>
-  <si>
     <t>2019-11-30T15:01:06Z</t>
   </si>
   <si>
-    <t>-4.5</t>
-  </si>
-  <si>
     <t>2019-11-30T15:01:12Z</t>
   </si>
   <si>
     <t>2019-11-30T15:01:17Z</t>
   </si>
   <si>
-    <t>-12.5</t>
-  </si>
-  <si>
     <t>2019-11-30T15:01:22Z</t>
   </si>
   <si>
@@ -134,21 +104,12 @@
     <t>2019-11-30T15:01:32Z</t>
   </si>
   <si>
-    <t>-8.5</t>
-  </si>
-  <si>
     <t>2019-11-30T15:01:37Z</t>
   </si>
   <si>
-    <t>-9.5</t>
-  </si>
-  <si>
     <t>2019-11-30T15:01:43Z</t>
   </si>
   <si>
-    <t>-7.8</t>
-  </si>
-  <si>
     <t>2019-11-30T15:01:47Z</t>
   </si>
   <si>
@@ -158,15 +119,9 @@
     <t>2019-11-30T15:01:58Z</t>
   </si>
   <si>
-    <t>-4.8</t>
-  </si>
-  <si>
     <t>2019-11-30T15:02:03Z</t>
   </si>
   <si>
-    <t>-2.8</t>
-  </si>
-  <si>
     <t>2019-11-30T15:02:08Z</t>
   </si>
   <si>
@@ -179,9 +134,6 @@
     <t>2019-11-30T15:02:23Z</t>
   </si>
   <si>
-    <t>-7.5</t>
-  </si>
-  <si>
     <t>2019-11-30T15:02:29Z</t>
   </si>
   <si>
@@ -194,15 +146,9 @@
     <t>2019-11-30T15:02:49Z</t>
   </si>
   <si>
-    <t>-1.8</t>
-  </si>
-  <si>
     <t>2019-11-30T15:02:57Z</t>
   </si>
   <si>
-    <t>-6.3</t>
-  </si>
-  <si>
     <t>2019-11-30T15:02:59Z</t>
   </si>
   <si>
@@ -218,21 +164,12 @@
     <t>2019-11-30T15:03:21Z</t>
   </si>
   <si>
-    <t>-12.8</t>
-  </si>
-  <si>
     <t>2019-11-30T15:03:25Z</t>
   </si>
   <si>
-    <t>-1.3</t>
-  </si>
-  <si>
     <t>2019-11-30T15:03:31Z</t>
   </si>
   <si>
-    <t>-12.2</t>
-  </si>
-  <si>
     <t>2019-11-30T15:03:35Z</t>
   </si>
   <si>
@@ -245,9 +182,6 @@
     <t>2019-11-30T15:03:46Z</t>
   </si>
   <si>
-    <t>-1.5</t>
-  </si>
-  <si>
     <t>2019-11-30T15:03:51Z</t>
   </si>
   <si>
@@ -257,27 +191,18 @@
     <t>2019-11-30T15:04:01Z</t>
   </si>
   <si>
-    <t>-2.5</t>
-  </si>
-  <si>
     <t>2019-11-30T15:04:06Z</t>
   </si>
   <si>
     <t>2019-11-30T15:04:14Z</t>
   </si>
   <si>
-    <t>-9.3</t>
-  </si>
-  <si>
     <t>2019-11-30T15:04:16Z</t>
   </si>
   <si>
     <t>2019-11-30T15:04:22Z</t>
   </si>
   <si>
-    <t>-10.3</t>
-  </si>
-  <si>
     <t>2019-11-30T15:04:30Z</t>
   </si>
   <si>
@@ -293,15 +218,9 @@
     <t>polacirc</t>
   </si>
   <si>
-    <t>-5.8</t>
-  </si>
-  <si>
     <t>2019-11-30T15:09:02Z</t>
   </si>
   <si>
-    <t>-7.3</t>
-  </si>
-  <si>
     <t>2019-11-30T15:09:07Z</t>
   </si>
   <si>
@@ -326,39 +245,24 @@
     <t>2019-11-30T15:09:48Z</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>2019-11-30T15:09:53Z</t>
   </si>
   <si>
-    <t>5.3</t>
-  </si>
-  <si>
     <t>2019-11-30T15:09:58Z</t>
   </si>
   <si>
-    <t>6.8</t>
-  </si>
-  <si>
     <t>2019-11-30T15:10:03Z</t>
   </si>
   <si>
     <t>2019-11-30T15:10:19Z</t>
   </si>
   <si>
-    <t>-13.3</t>
-  </si>
-  <si>
     <t>2019-11-30T15:10:29Z</t>
   </si>
   <si>
     <t>2019-11-30T15:10:39Z</t>
   </si>
   <si>
-    <t>-11.5</t>
-  </si>
-  <si>
     <t>2019-11-30T15:10:50Z</t>
   </si>
   <si>
@@ -377,36 +281,9 @@
     <t>2019-11-30T15:11:36Z</t>
   </si>
   <si>
-    <t>-14.5</t>
-  </si>
-  <si>
     <t>2019-11-30T15:12:25Z</t>
   </si>
   <si>
-    <t>-3.8</t>
-  </si>
-  <si>
-    <t>-11.3</t>
-  </si>
-  <si>
-    <t>-9.8</t>
-  </si>
-  <si>
-    <t>-6.8</t>
-  </si>
-  <si>
-    <t>-5.5</t>
-  </si>
-  <si>
-    <t>-5.3</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -419,16 +296,7 @@
     <t>eui-60c5a8fffe71ab1c</t>
   </si>
   <si>
-    <t>6.5</t>
-  </si>
-  <si>
     <t>eui-00800000a000414f</t>
-  </si>
-  <si>
-    <t>-6.5</t>
-  </si>
-  <si>
-    <t>0.3</t>
   </si>
   <si>
     <t>nb_gtw</t>
@@ -834,62 +702,67 @@
   <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="L1" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="M1" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="N1" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O1" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="P1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -897,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -905,17 +778,17 @@
       <c r="E2">
         <v>-126</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
+      <c r="F2">
+        <v>-10.5</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <v>-125</v>
       </c>
-      <c r="I2" t="s">
-        <v>80</v>
+      <c r="I2">
+        <v>-10.3</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -933,24 +806,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>-124</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
+      <c r="F3">
+        <v>-8.8000000000000007</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -974,18 +847,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>-117</v>
@@ -994,7 +867,7 @@
         <v>-4</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H4">
         <v>-126</v>
@@ -1018,18 +891,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>-117</v>
@@ -1038,13 +911,13 @@
         <v>-4</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H5">
         <v>-127</v>
       </c>
-      <c r="I5" t="s">
-        <v>107</v>
+      <c r="I5">
+        <v>-11.5</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1062,33 +935,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>-126</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
+      <c r="F6">
+        <v>-10.8</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H6">
         <v>-118</v>
       </c>
-      <c r="I6" t="s">
-        <v>25</v>
+      <c r="I6">
+        <v>-4.5</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1106,18 +979,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>-119</v>
@@ -1126,7 +999,7 @@
         <v>-4</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H7">
         <v>-126</v>
@@ -1150,18 +1023,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>-119</v>
@@ -1170,13 +1043,13 @@
         <v>-4</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H8">
         <v>-126</v>
       </c>
-      <c r="I8" t="s">
-        <v>3</v>
+      <c r="I8">
+        <v>-10.5</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1194,24 +1067,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>-114</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
+      <c r="F9">
+        <v>-0.5</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1235,18 +1108,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>-113</v>
@@ -1276,24 +1149,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>-118</v>
       </c>
-      <c r="F11" t="s">
-        <v>17</v>
+      <c r="F11">
+        <v>-3.3</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1317,33 +1190,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>-125</v>
       </c>
-      <c r="F12" t="s">
-        <v>19</v>
+      <c r="F12">
+        <v>-11.8</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H12">
         <v>-117</v>
       </c>
-      <c r="I12" t="s">
-        <v>116</v>
+      <c r="I12">
+        <v>-3.8</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1361,33 +1234,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>-127</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
+      <c r="F13">
+        <v>-12.3</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H13">
         <v>-120</v>
       </c>
-      <c r="I13" t="s">
-        <v>25</v>
+      <c r="I13">
+        <v>-4.5</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1405,24 +1278,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>-119</v>
       </c>
-      <c r="F14" t="s">
-        <v>23</v>
+      <c r="F14">
+        <v>-3.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1446,33 +1319,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>-118</v>
       </c>
-      <c r="F15" t="s">
-        <v>25</v>
+      <c r="F15">
+        <v>-4.5</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H15">
         <v>-126</v>
       </c>
-      <c r="I15" t="s">
-        <v>117</v>
+      <c r="I15">
+        <v>-11.3</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1490,27 +1363,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>-117</v>
       </c>
-      <c r="F16" t="s">
-        <v>23</v>
+      <c r="F16">
+        <v>-3.5</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H16">
         <v>-128</v>
@@ -1534,33 +1407,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>-128</v>
       </c>
-      <c r="F17" t="s">
-        <v>28</v>
+      <c r="F17">
+        <v>-12.5</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H17">
         <v>-115</v>
       </c>
-      <c r="I17" t="s">
-        <v>43</v>
+      <c r="I17">
+        <v>-2.8</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1578,27 +1451,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>-128</v>
       </c>
-      <c r="F18" t="s">
-        <v>28</v>
+      <c r="F18">
+        <v>-12.5</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H18">
         <v>-119</v>
@@ -1622,18 +1495,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>-118</v>
@@ -1642,13 +1515,13 @@
         <v>-5</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H19">
         <v>-122</v>
       </c>
-      <c r="I19" t="s">
-        <v>77</v>
+      <c r="I19">
+        <v>-9.3000000000000007</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1666,33 +1539,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>-126</v>
       </c>
-      <c r="F20" t="s">
-        <v>33</v>
+      <c r="F20">
+        <v>-8.5</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H20">
         <v>-125</v>
       </c>
-      <c r="I20" t="s">
-        <v>118</v>
+      <c r="I20">
+        <v>-9.8000000000000007</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1710,24 +1583,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>-125</v>
       </c>
-      <c r="F21" t="s">
-        <v>35</v>
+      <c r="F21">
+        <v>-9.5</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1751,33 +1624,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>-123</v>
       </c>
-      <c r="F22" t="s">
-        <v>37</v>
+      <c r="F22">
+        <v>-7.8</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H22">
         <v>-120</v>
       </c>
-      <c r="I22" t="s">
-        <v>119</v>
+      <c r="I22">
+        <v>-6.8</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1795,33 +1668,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>-125</v>
       </c>
-      <c r="F23" t="s">
-        <v>35</v>
+      <c r="F23">
+        <v>-9.5</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H23">
         <v>-121</v>
       </c>
-      <c r="I23" t="s">
-        <v>120</v>
+      <c r="I23">
+        <v>-5.5</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1839,24 +1712,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>-120</v>
       </c>
-      <c r="F24" t="s">
-        <v>25</v>
+      <c r="F24">
+        <v>-4.5</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1880,24 +1753,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>-117</v>
       </c>
-      <c r="F25" t="s">
-        <v>41</v>
+      <c r="F25">
+        <v>-4.8</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1921,33 +1794,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <v>-118</v>
       </c>
-      <c r="F26" t="s">
-        <v>43</v>
+      <c r="F26">
+        <v>-2.8</v>
       </c>
       <c r="G26" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H26">
         <v>-120</v>
       </c>
-      <c r="I26" t="s">
-        <v>121</v>
+      <c r="I26">
+        <v>-5.3</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1965,24 +1838,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>-116</v>
       </c>
-      <c r="F27" t="s">
-        <v>25</v>
+      <c r="F27">
+        <v>-4.5</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2006,15 +1879,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
@@ -2022,17 +1895,17 @@
       <c r="E28">
         <v>-118</v>
       </c>
-      <c r="F28" t="s">
-        <v>41</v>
+      <c r="F28">
+        <v>-4.8</v>
       </c>
       <c r="G28" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H28">
         <v>-120</v>
       </c>
-      <c r="I28" t="s">
-        <v>121</v>
+      <c r="I28">
+        <v>-5.3</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2050,15 +1923,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
@@ -2091,33 +1964,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>-123</v>
       </c>
-      <c r="F30" t="s">
-        <v>48</v>
+      <c r="F30">
+        <v>-7.5</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H30">
         <v>-120</v>
       </c>
-      <c r="I30" t="s">
-        <v>88</v>
+      <c r="I30">
+        <v>-7.3</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2135,33 +2008,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>-124</v>
       </c>
-      <c r="F31" t="s">
-        <v>6</v>
+      <c r="F31">
+        <v>-8.8000000000000007</v>
       </c>
       <c r="G31" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H31">
         <v>-123</v>
       </c>
-      <c r="I31" t="s">
-        <v>48</v>
+      <c r="I31">
+        <v>-7.5</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2179,27 +2052,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>-116</v>
       </c>
-      <c r="F32" t="s">
-        <v>17</v>
+      <c r="F32">
+        <v>-3.3</v>
       </c>
       <c r="G32" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H32">
         <v>-113</v>
@@ -2223,27 +2096,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E33">
         <v>-125</v>
       </c>
-      <c r="F33" t="s">
-        <v>48</v>
+      <c r="F33">
+        <v>-7.5</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2252,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K33">
         <v>-115</v>
       </c>
-      <c r="L33" t="s">
-        <v>70</v>
+      <c r="L33">
+        <v>-1.5</v>
       </c>
       <c r="N33">
         <v>-109</v>
@@ -2270,27 +2143,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>-114</v>
       </c>
-      <c r="F34" t="s">
-        <v>53</v>
+      <c r="F34">
+        <v>-1.8</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H34">
         <v>-105</v>
@@ -2314,27 +2187,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E35">
         <v>-123</v>
       </c>
-      <c r="F35" t="s">
-        <v>55</v>
+      <c r="F35">
+        <v>-6.3</v>
       </c>
       <c r="G35" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2343,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K35">
         <v>-113</v>
@@ -2354,43 +2227,43 @@
       <c r="N35">
         <v>-104</v>
       </c>
-      <c r="O35" t="s">
-        <v>122</v>
+      <c r="O35">
+        <v>7.5</v>
       </c>
       <c r="P35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>-118</v>
       </c>
-      <c r="F36" t="s">
-        <v>41</v>
+      <c r="F36">
+        <v>-4.8</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H36">
         <v>-107</v>
       </c>
-      <c r="I36" t="s">
-        <v>122</v>
+      <c r="I36">
+        <v>7.5</v>
       </c>
       <c r="J36" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="K36">
         <v>-124</v>
@@ -2408,27 +2281,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E37">
         <v>-125</v>
       </c>
-      <c r="F37" t="s">
-        <v>37</v>
+      <c r="F37">
+        <v>-7.8</v>
       </c>
       <c r="G37" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2437,36 +2310,36 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K37">
         <v>-121</v>
       </c>
-      <c r="L37" t="s">
-        <v>120</v>
+      <c r="L37">
+        <v>-5.5</v>
       </c>
       <c r="N37">
         <v>-106</v>
       </c>
-      <c r="O37" t="s">
-        <v>128</v>
+      <c r="O37">
+        <v>6.5</v>
       </c>
       <c r="P37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>-112</v>
@@ -2475,7 +2348,7 @@
         <v>-1</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H38">
         <v>-106</v>
@@ -2499,18 +2372,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>-109</v>
@@ -2519,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H39">
         <v>-128</v>
@@ -2543,33 +2416,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>-128</v>
       </c>
-      <c r="F40" t="s">
-        <v>61</v>
+      <c r="F40">
+        <v>-12.8</v>
       </c>
       <c r="G40" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H40">
         <v>-106</v>
       </c>
-      <c r="I40" t="s">
-        <v>99</v>
+      <c r="I40">
+        <v>5.3</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2587,33 +2460,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>-113</v>
       </c>
-      <c r="F41" t="s">
-        <v>63</v>
+      <c r="F41">
+        <v>-1.3</v>
       </c>
       <c r="G41" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H41">
         <v>-125</v>
       </c>
-      <c r="I41" t="s">
-        <v>80</v>
+      <c r="I41">
+        <v>-10.3</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2631,24 +2504,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <v>-126</v>
       </c>
-      <c r="F42" t="s">
-        <v>33</v>
+      <c r="F42">
+        <v>-8.5</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2672,24 +2545,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E43">
         <v>-118</v>
       </c>
-      <c r="F43" t="s">
-        <v>65</v>
+      <c r="F43">
+        <v>-12.2</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2713,24 +2586,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>-124</v>
       </c>
-      <c r="F44" t="s">
-        <v>33</v>
+      <c r="F44">
+        <v>-8.5</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -2754,18 +2627,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E45">
         <v>-119</v>
@@ -2795,24 +2668,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>-126</v>
       </c>
-      <c r="F46" t="s">
-        <v>61</v>
+      <c r="F46">
+        <v>-12.8</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2836,27 +2709,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <v>-114</v>
       </c>
-      <c r="F47" t="s">
-        <v>70</v>
+      <c r="F47">
+        <v>-1.5</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H47">
         <v>-118</v>
@@ -2880,18 +2753,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>-120</v>
@@ -2900,7 +2773,7 @@
         <v>-7</v>
       </c>
       <c r="G48" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H48">
         <v>-115</v>
@@ -2924,18 +2797,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <v>-118</v>
@@ -2944,13 +2817,13 @@
         <v>-3</v>
       </c>
       <c r="G49" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H49">
         <v>-117</v>
       </c>
-      <c r="I49" t="s">
-        <v>53</v>
+      <c r="I49">
+        <v>-1.8</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2968,24 +2841,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <v>-118</v>
       </c>
-      <c r="F50" t="s">
-        <v>74</v>
+      <c r="F50">
+        <v>-2.5</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -3009,18 +2882,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51">
         <v>-109</v>
@@ -3029,13 +2902,13 @@
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H51">
         <v>-114</v>
       </c>
-      <c r="I51" t="s">
-        <v>63</v>
+      <c r="I51">
+        <v>-1.3</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3053,36 +2926,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52">
         <v>-121</v>
       </c>
-      <c r="F52" t="s">
-        <v>77</v>
+      <c r="F52">
+        <v>-9.3000000000000007</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H52">
         <v>-106</v>
       </c>
-      <c r="I52" t="s">
-        <v>99</v>
+      <c r="I52">
+        <v>5.3</v>
       </c>
       <c r="J52" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="K52">
         <v>-123</v>
@@ -3100,18 +2973,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53">
         <v>-111</v>
@@ -3120,22 +2993,22 @@
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="H53">
         <v>-122</v>
       </c>
-      <c r="I53" t="s">
-        <v>130</v>
+      <c r="I53">
+        <v>-6.5</v>
       </c>
       <c r="J53" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K53">
         <v>-123</v>
       </c>
-      <c r="L53" t="s">
-        <v>119</v>
+      <c r="L53">
+        <v>-6.8</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3147,42 +3020,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <v>-123</v>
       </c>
-      <c r="F54" t="s">
-        <v>80</v>
+      <c r="F54">
+        <v>-10.3</v>
       </c>
       <c r="G54" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="H54">
         <v>-107</v>
       </c>
-      <c r="I54" t="s">
-        <v>128</v>
+      <c r="I54">
+        <v>6.5</v>
       </c>
       <c r="J54" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K54">
         <v>-120</v>
       </c>
-      <c r="L54" t="s">
-        <v>25</v>
+      <c r="L54">
+        <v>-4.5</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3194,18 +3067,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E55">
         <v>-122</v>
@@ -3214,7 +3087,7 @@
         <v>-5</v>
       </c>
       <c r="G55" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3223,45 +3096,45 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K55">
         <v>-127</v>
       </c>
-      <c r="L55" t="s">
-        <v>21</v>
+      <c r="L55">
+        <v>-12.3</v>
       </c>
       <c r="N55">
         <v>-109</v>
       </c>
-      <c r="O55" t="s">
-        <v>128</v>
+      <c r="O55">
+        <v>6.5</v>
       </c>
       <c r="P55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E56">
         <v>-121</v>
       </c>
-      <c r="F56" t="s">
-        <v>55</v>
+      <c r="F56">
+        <v>-6.3</v>
       </c>
       <c r="G56" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -3285,18 +3158,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <v>-122</v>
@@ -3326,27 +3199,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="E58">
         <v>-123</v>
       </c>
-      <c r="F58" t="s">
-        <v>86</v>
+      <c r="F58">
+        <v>-5.8</v>
       </c>
       <c r="G58" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -3355,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K58">
         <v>-121</v>
@@ -3370,30 +3243,30 @@
         <v>6</v>
       </c>
       <c r="P58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="E59">
         <v>-122</v>
       </c>
-      <c r="F59" t="s">
-        <v>88</v>
+      <c r="F59">
+        <v>-7.3</v>
       </c>
       <c r="G59" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -3402,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K59">
         <v>-109</v>
@@ -3413,22 +3286,22 @@
       <c r="N59">
         <v>-113</v>
       </c>
-      <c r="O59" t="s">
-        <v>131</v>
+      <c r="O59">
+        <v>0.3</v>
       </c>
       <c r="P59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D60" t="s">
         <v>2</v>
@@ -3436,17 +3309,17 @@
       <c r="E60">
         <v>-128</v>
       </c>
-      <c r="F60" t="s">
-        <v>28</v>
+      <c r="F60">
+        <v>-12.5</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H60">
         <v>-120</v>
       </c>
-      <c r="I60" t="s">
-        <v>88</v>
+      <c r="I60">
+        <v>-7.3</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3461,18 +3334,18 @@
         <v>0</v>
       </c>
       <c r="P60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
@@ -3502,18 +3375,18 @@
         <v>0</v>
       </c>
       <c r="P61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D62" t="s">
         <v>2</v>
@@ -3525,13 +3398,13 @@
         <v>-12</v>
       </c>
       <c r="G62" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H62">
         <v>-125</v>
       </c>
-      <c r="I62" t="s">
-        <v>21</v>
+      <c r="I62">
+        <v>-12.3</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3546,18 +3419,18 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
@@ -3565,8 +3438,8 @@
       <c r="E63">
         <v>-121</v>
       </c>
-      <c r="F63" t="s">
-        <v>55</v>
+      <c r="F63">
+        <v>-6.3</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3587,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
@@ -3610,13 +3483,13 @@
         <v>-7</v>
       </c>
       <c r="G64" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H64">
         <v>-118</v>
       </c>
-      <c r="I64" t="s">
-        <v>41</v>
+      <c r="I64">
+        <v>-4.8</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3631,18 +3504,18 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
@@ -3650,17 +3523,17 @@
       <c r="E65">
         <v>-115</v>
       </c>
-      <c r="F65" t="s">
-        <v>17</v>
+      <c r="F65">
+        <v>-3.3</v>
       </c>
       <c r="G65" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H65">
         <v>-112</v>
       </c>
-      <c r="I65" t="s">
-        <v>123</v>
+      <c r="I65">
+        <v>2.5</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3675,18 +3548,18 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D66" t="s">
         <v>2</v>
@@ -3694,17 +3567,17 @@
       <c r="E66">
         <v>-123</v>
       </c>
-      <c r="F66" t="s">
-        <v>35</v>
+      <c r="F66">
+        <v>-9.5</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H66">
         <v>-124</v>
       </c>
-      <c r="I66" t="s">
-        <v>77</v>
+      <c r="I66">
+        <v>-9.3000000000000007</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3719,18 +3592,18 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
         <v>2</v>
@@ -3738,11 +3611,11 @@
       <c r="E67">
         <v>-113</v>
       </c>
-      <c r="F67" t="s">
-        <v>97</v>
+      <c r="F67">
+        <v>1.5</v>
       </c>
       <c r="G67" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H67">
         <v>-116</v>
@@ -3763,30 +3636,30 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68">
         <v>-109</v>
       </c>
-      <c r="F68" t="s">
-        <v>99</v>
+      <c r="F68">
+        <v>5.3</v>
       </c>
       <c r="G68" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="H68">
         <v>-112</v>
@@ -3795,13 +3668,13 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K68">
         <v>-126</v>
       </c>
-      <c r="L68" t="s">
-        <v>35</v>
+      <c r="L68">
+        <v>-9.5</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -3810,30 +3683,30 @@
         <v>0</v>
       </c>
       <c r="P68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E69">
         <v>-107</v>
       </c>
-      <c r="F69" t="s">
-        <v>101</v>
+      <c r="F69">
+        <v>6.8</v>
       </c>
       <c r="G69" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H69">
         <v>-111</v>
@@ -3854,27 +3727,27 @@
         <v>0</v>
       </c>
       <c r="P69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70">
         <v>-125</v>
       </c>
-      <c r="F70" t="s">
-        <v>35</v>
+      <c r="F70">
+        <v>-9.5</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3895,27 +3768,27 @@
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <v>-128</v>
       </c>
-      <c r="F71" t="s">
-        <v>104</v>
+      <c r="F71">
+        <v>-13.3</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3936,36 +3809,36 @@
         <v>0</v>
       </c>
       <c r="P71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72">
         <v>-126</v>
       </c>
-      <c r="F72" t="s">
-        <v>104</v>
+      <c r="F72">
+        <v>-13.3</v>
       </c>
       <c r="G72" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H72">
         <v>-128</v>
       </c>
-      <c r="I72" t="s">
-        <v>114</v>
+      <c r="I72">
+        <v>-14.5</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3980,27 +3853,27 @@
         <v>0</v>
       </c>
       <c r="P72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E73">
         <v>-127</v>
       </c>
-      <c r="F73" t="s">
-        <v>107</v>
+      <c r="F73">
+        <v>-11.5</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -4021,21 +3894,21 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74">
         <v>-120</v>
@@ -4062,21 +3935,21 @@
         <v>0</v>
       </c>
       <c r="P74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <v>-127</v>
@@ -4103,27 +3976,27 @@
         <v>0</v>
       </c>
       <c r="P75" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E76">
         <v>-127</v>
       </c>
-      <c r="F76" t="s">
-        <v>21</v>
+      <c r="F76">
+        <v>-12.3</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -4144,30 +4017,30 @@
         <v>0</v>
       </c>
       <c r="P76" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <v>-123</v>
       </c>
-      <c r="F77" t="s">
-        <v>80</v>
+      <c r="F77">
+        <v>-10.3</v>
       </c>
       <c r="G77" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H77">
         <v>-124</v>
@@ -4188,36 +4061,36 @@
         <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78">
         <v>-128</v>
       </c>
-      <c r="F78" t="s">
-        <v>104</v>
+      <c r="F78">
+        <v>-13.3</v>
       </c>
       <c r="G78" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H78">
         <v>-126</v>
       </c>
-      <c r="I78" t="s">
-        <v>28</v>
+      <c r="I78">
+        <v>-12.5</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -4232,27 +4105,27 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79">
         <v>-128</v>
       </c>
-      <c r="F79" t="s">
-        <v>114</v>
+      <c r="F79">
+        <v>-14.5</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -4273,18 +4146,18 @@
         <v>0</v>
       </c>
       <c r="P79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D80" t="s">
         <v>2</v>
@@ -4292,8 +4165,8 @@
       <c r="E80">
         <v>-127</v>
       </c>
-      <c r="F80" t="s">
-        <v>80</v>
+      <c r="F80">
+        <v>-10.3</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -4314,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
